--- a/build_mso.xlsx
+++ b/build_mso.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calange/PycharmProjects/pycharm/ansible_ndo_dcnm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC44EC64-CAE0-E14F-9CB4-28B16707FD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35991BD4-B1CF-4A45-A5DA-82D6850E28BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20220" yWindow="-28800" windowWidth="68800" windowHeight="28800" tabRatio="878" xr2:uid="{A9CD2B9B-B0A4-594B-AA2D-F7681573ED79}"/>
+    <workbookView xWindow="-20220" yWindow="-28800" windowWidth="34120" windowHeight="28800" tabRatio="878" firstSheet="8" activeTab="16" xr2:uid="{A9CD2B9B-B0A4-594B-AA2D-F7681573ED79}"/>
   </bookViews>
   <sheets>
     <sheet name="build_tasks" sheetId="11" r:id="rId1"/>
@@ -24,9 +24,15 @@
     <sheet name="schema" sheetId="6" r:id="rId9"/>
     <sheet name="template_site_association" sheetId="39" r:id="rId10"/>
     <sheet name="vrf" sheetId="8" r:id="rId11"/>
-    <sheet name="network" sheetId="43" r:id="rId12"/>
+    <sheet name="vrf_site_association" sheetId="44" r:id="rId12"/>
+    <sheet name="vrf_site_switch_association" sheetId="45" r:id="rId13"/>
+    <sheet name="network" sheetId="43" r:id="rId14"/>
+    <sheet name="network_site_association" sheetId="46" r:id="rId15"/>
+    <sheet name="network_site_switch_association" sheetId="47" r:id="rId16"/>
+    <sheet name="network_site_dhcp_association" sheetId="48" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
   <si>
     <t>include</t>
   </si>
@@ -292,6 +298,69 @@
   </si>
   <si>
     <t>network</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Associate VRF to Site</t>
+  </si>
+  <si>
+    <t>vrf_site_association</t>
+  </si>
+  <si>
+    <t>Associate VRF to Switch</t>
+  </si>
+  <si>
+    <t>vrf_site_switch_association</t>
+  </si>
+  <si>
+    <t>Associate Network to Site</t>
+  </si>
+  <si>
+    <t>network_site_association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Associate Network to Switch </t>
+  </si>
+  <si>
+    <t>network_site_switch_association</t>
+  </si>
+  <si>
+    <t>Associate DHCP to Network</t>
+  </si>
+  <si>
+    <t>network_site_dhcp_association</t>
+  </si>
+  <si>
+    <t>switch_serial_number</t>
+  </si>
+  <si>
+    <t>switch_1_serial_number</t>
+  </si>
+  <si>
+    <t>switch_2_serial_number</t>
+  </si>
+  <si>
+    <t>network_name</t>
+  </si>
+  <si>
+    <t>network_template_name</t>
+  </si>
+  <si>
+    <t>network_schema_name</t>
+  </si>
+  <si>
+    <t>enable_l3_border_gateway</t>
+  </si>
+  <si>
+    <t>dhcp_loopback_id</t>
+  </si>
+  <si>
+    <t>dhcp_vrf</t>
+  </si>
+  <si>
+    <t>dhcp_address</t>
   </si>
 </sst>
 </file>
@@ -375,7 +444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +466,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
@@ -470,7 +545,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -484,6 +559,8 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -494,197 +571,7 @@
     <cellStyle name="Normal 3 2" xfId="6" xr:uid="{647212A0-830B-4D3B-8688-A3A2BA39E7B4}"/>
     <cellStyle name="Normal 4" xfId="5" xr:uid="{43D0B8A7-C5A0-4D58-9BEC-3B91BF456DB2}"/>
   </cellStyles>
-  <dxfs count="47">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="77">
     <dxf>
       <font>
         <b/>
@@ -710,107 +597,196 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
         <top style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </top>
         <bottom style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
@@ -845,6 +821,532 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
@@ -962,8 +1464,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{97CC72E3-E822-1744-A45C-775265F14D2B}" name="Table6" displayName="Table6" ref="A1:D8" totalsRowShown="0">
-  <autoFilter ref="A1:D8" xr:uid="{4DC2A834-67D9-43E3-8E49-3F174AA13EF0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{97CC72E3-E822-1744-A45C-775265F14D2B}" name="Table6" displayName="Table6" ref="A1:D13" totalsRowShown="0">
+  <autoFilter ref="A1:D13" xr:uid="{4DC2A834-67D9-43E3-8E49-3F174AA13EF0}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F2CDCB52-209A-6247-AB53-9CE645338535}" name="include"/>
     <tableColumn id="2" xr3:uid="{1DF4162A-A225-FA4C-92CC-23553FCE1A89}" name="description"/>
@@ -980,7 +1482,7 @@
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{C9F43B0F-5616-5941-A08E-41C751C56788}" name="site_name"/>
     <tableColumn id="2" xr3:uid="{BB92A7FD-84E5-0F4F-8A14-117B3EDE1EAF}" name="template_name"/>
-    <tableColumn id="3" xr3:uid="{B9CAE4DF-04BC-4E4B-8DC3-AFD113CCAE43}" name="schema_name" dataDxfId="15">
+    <tableColumn id="3" xr3:uid="{B9CAE4DF-04BC-4E4B-8DC3-AFD113CCAE43}" name="schema_name" dataDxfId="45">
       <calculatedColumnFormula>_xlfn.XLOOKUP(Table7[[#This Row],[template_name]],schema[template],schema[name])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{FB83C476-46D9-C44A-BF2E-5FABB383269D}" name="status"/>
@@ -990,45 +1492,86 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2D296D05-8516-8D4D-8816-C3DDCFFB0D26}" name="vrf" displayName="vrf" ref="A1:K2" totalsRowShown="0" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2D296D05-8516-8D4D-8816-C3DDCFFB0D26}" name="vrf" displayName="vrf" ref="A1:K2" totalsRowShown="0" dataDxfId="44">
   <autoFilter ref="A1:K2" xr:uid="{8A58AC9A-EC59-A545-8331-A924816E877A}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{C4584111-39EC-144A-A729-09BC91E0456E}" name="name" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{98D1EFB5-AEDB-D846-AC79-6B280265F2BA}" name="description" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{6C88C816-F10C-0E43-A1FF-6B56289102D1}" name="template_name" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{F40646C6-7622-E94F-8FF9-088D3FFF7423}" name="schema_name" dataDxfId="10">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(vrf[[#This Row],[template_name]],schema[template],schema[name])</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{C4584111-39EC-144A-A729-09BC91E0456E}" name="name" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{98D1EFB5-AEDB-D846-AC79-6B280265F2BA}" name="description" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{6C88C816-F10C-0E43-A1FF-6B56289102D1}" name="template_name" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{F40646C6-7622-E94F-8FF9-088D3FFF7423}" name="schema_name" dataDxfId="40">
+      <calculatedColumnFormula>IF(ISBLANK(vrf[[#This Row],[name]]),"",_xlfn.XLOOKUP(vrf[[#This Row],[template_name]],schema[template],schema[name]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{CB47AA65-DEA8-794F-A518-2DC88B1BF140}" name="vrf_id" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{D2CDEEB9-0BA4-4046-A78D-6679CA94D3AA}" name="vrf_profile" dataDxfId="8"/>
-    <tableColumn id="10" xr3:uid="{4773FDFD-16F6-6344-846A-AE57A3E15A1F}" name="vrf_extension_profile" dataDxfId="7"/>
-    <tableColumn id="11" xr3:uid="{A426A3F1-4A56-6E49-9934-C16AB1AA3331}" name="loopback_routing_tag" dataDxfId="6"/>
-    <tableColumn id="12" xr3:uid="{3D0BE71F-2072-5A46-8B89-428F91CA3316}" name="redistribute_direct_route_map" dataDxfId="5"/>
-    <tableColumn id="13" xr3:uid="{22A81FEB-17EF-1643-9684-7C56A2E821CC}" name="disable_rt_auto_generate" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{4785C775-C870-DC40-A33C-4CEF0AACFE8F}" name="status" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{CB47AA65-DEA8-794F-A518-2DC88B1BF140}" name="vrf_id" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{D2CDEEB9-0BA4-4046-A78D-6679CA94D3AA}" name="vrf_profile" dataDxfId="38"/>
+    <tableColumn id="10" xr3:uid="{4773FDFD-16F6-6344-846A-AE57A3E15A1F}" name="vrf_extension_profile" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{A426A3F1-4A56-6E49-9934-C16AB1AA3331}" name="loopback_routing_tag" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{3D0BE71F-2072-5A46-8B89-428F91CA3316}" name="redistribute_direct_route_map" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{22A81FEB-17EF-1643-9684-7C56A2E821CC}" name="disable_rt_auto_generate" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{4785C775-C870-DC40-A33C-4CEF0AACFE8F}" name="status" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C7444A82-22F4-3448-BEE2-1AD00F46F14A}" name="Table10" displayName="Table10" ref="A1:S2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{5173D2F7-2636-244B-8E64-F8638F75121D}" name="vrf_site_association" displayName="vrf_site_association" ref="A1:E2" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="31" tableBorderDxfId="30">
+  <autoFilter ref="A1:E2" xr:uid="{5173D2F7-2636-244B-8E64-F8638F75121D}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{4F0E7D6F-E962-BB4A-B6D8-D787480462AD}" name="vrf_name"/>
+    <tableColumn id="2" xr3:uid="{D3E9371E-0A15-6742-8F11-1F9F235FE2E2}" name="vrf_template_name" dataDxfId="29">
+      <calculatedColumnFormula>IF(ISBLANK(vrf_site_association[[#This Row],[vrf_name]]),"",_xlfn.XLOOKUP(vrf_site_association[[#This Row],[vrf_name]],vrf[name],vrf[template_name]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{BFED977F-3AEF-8149-AE92-E8AFAA6E3143}" name="vrf_schema_name" dataDxfId="28">
+      <calculatedColumnFormula>IF(ISBLANK(vrf_site_association[[#This Row],[vrf_name]]),"",_xlfn.XLOOKUP(vrf_site_association[[#This Row],[vrf_name]],vrf[name],vrf[schema_name]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{C5FEED60-FE13-434F-B825-72FB225BDFC4}" name="site"/>
+    <tableColumn id="5" xr3:uid="{C24C480D-F1B3-B849-BD4F-E5E9323425D0}" name="status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A640DDE8-8E3D-0D4C-A881-8E5891FCA5AB}" name="vrf_site_switch_association" displayName="vrf_site_switch_association" ref="A1:H2" totalsRowShown="0" headerRowDxfId="27" headerRowBorderDxfId="26" tableBorderDxfId="25">
+  <autoFilter ref="A1:H2" xr:uid="{A640DDE8-8E3D-0D4C-A881-8E5891FCA5AB}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{CAAD6774-5D0D-3647-AC3B-8D8A5391B99F}" name="vrf_name"/>
+    <tableColumn id="2" xr3:uid="{F7C983F3-3B68-B847-BBAF-C7DC6C59F64D}" name="vrf_template_name" dataDxfId="24">
+      <calculatedColumnFormula>IF(ISBLANK(vrf_site_switch_association[[#This Row],[vrf_name]]),"",_xlfn.XLOOKUP(vrf_site_switch_association[[#This Row],[vrf_name]],vrf[name],vrf[template_name]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{B5522DE6-1EEF-C541-83EF-F3D726BBFEE8}" name="vrf_schema_name" dataDxfId="23">
+      <calculatedColumnFormula>IF(ISBLANK(vrf_site_switch_association[[#This Row],[vrf_name]]),"",_xlfn.XLOOKUP(vrf_site_switch_association[[#This Row],[vrf_name]],vrf[name],vrf[schema_name]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E09509AE-7120-1C4B-8E86-256F11726A9C}" name="site"/>
+    <tableColumn id="5" xr3:uid="{A76191DD-F755-C14A-88D2-F6245426DDCE}" name="switch_1_serial_number"/>
+    <tableColumn id="6" xr3:uid="{C1AFC4CB-8C56-764D-BD5D-26492EBC4666}" name="switch_2_serial_number"/>
+    <tableColumn id="7" xr3:uid="{E6E225DA-C751-1744-9FE5-8917895DC8F4}" name="switch_serial_number" dataDxfId="22">
+      <calculatedColumnFormula>IF(ISBLANK(vrf_site_switch_association[[#This Row],[switch_1_serial_number]]),"",IF(ISBLANK(vrf_site_switch_association[[#This Row],[switch_2_serial_number]]),vrf_site_switch_association[[#This Row],[switch_1_serial_number]],vrf_site_switch_association[[#This Row],[switch_1_serial_number]]&amp;"~"&amp;vrf_site_switch_association[[#This Row],[switch_2_serial_number]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{CA0C91F6-F972-9845-A27C-FE468818EE5E}" name="status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{C7444A82-22F4-3448-BEE2-1AD00F46F14A}" name="network" displayName="network" ref="A1:S2" totalsRowShown="0">
   <autoFilter ref="A1:S2" xr:uid="{C7444A82-22F4-3448-BEE2-1AD00F46F14A}"/>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{7BC45EF9-A499-AB42-A530-303AD8307BD5}" name="name"/>
     <tableColumn id="2" xr3:uid="{EB7CD3CC-B713-9346-9F92-EEB08D262795}" name="description"/>
     <tableColumn id="6" xr3:uid="{F5E628DF-03F7-254E-A16E-4E6C6A1686B4}" name="template_name"/>
-    <tableColumn id="7" xr3:uid="{02C4A860-1849-CE4F-B5D9-5365C7FB6823}" name="schema_name" dataDxfId="2">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(Table10[[#This Row],[template_name]],schema[template],schema[name])</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{02C4A860-1849-CE4F-B5D9-5365C7FB6823}" name="schema_name" dataDxfId="21">
+      <calculatedColumnFormula>IF(ISBLANK(network[[#This Row],[vrf_name]]),"",_xlfn.XLOOKUP(network[[#This Row],[template_name]],schema[template],schema[name]))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{F67EE898-4076-5E48-94EB-A983CB9028F6}" name="network_id"/>
     <tableColumn id="4" xr3:uid="{B8CB8607-2130-794E-8224-8774BD3523E5}" name="layer2_only"/>
     <tableColumn id="5" xr3:uid="{1C08CCFF-CCD4-D944-A77F-5E413ADCB86C}" name="vrf_name"/>
-    <tableColumn id="8" xr3:uid="{C7180C65-1825-AF41-93DD-A3254F0453AC}" name="vrf_template_name" dataDxfId="1">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(Table10[[#This Row],[vrf_name]],vrf[name],vrf[template_name])</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{C7180C65-1825-AF41-93DD-A3254F0453AC}" name="vrf_template_name" dataDxfId="20">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(network[[#This Row],[vrf_name]],vrf[name],vrf[template_name])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B5B56CB2-B4A8-9C4B-A229-4EF779C8D236}" name="vrf_schema_name" dataDxfId="0">
-      <calculatedColumnFormula>_xlfn.XLOOKUP(Table10[[#This Row],[vrf_name]],vrf[name],vrf[schema_name])</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{B5B56CB2-B4A8-9C4B-A229-4EF779C8D236}" name="vrf_schema_name" dataDxfId="19">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(network[[#This Row],[vrf_name]],vrf[name],vrf[schema_name])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{02693765-E271-FC42-958F-183EA9CA5051}" name="network_profile"/>
     <tableColumn id="11" xr3:uid="{B1D8F5E9-25C4-E84F-AFFD-4678F309339A}" name="network_extension_profile"/>
@@ -1045,14 +1588,80 @@
 </table>
 </file>
 
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{F1B24F7E-8520-AD43-A3A3-E1115CC4D085}" name="network_site_association" displayName="network_site_association" ref="A1:H2" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+  <autoFilter ref="A1:H2" xr:uid="{F1B24F7E-8520-AD43-A3A3-E1115CC4D085}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{09FCC06F-342C-7441-94CD-7B0C8EA3D9CC}" name="network_name"/>
+    <tableColumn id="2" xr3:uid="{E910DEBA-211C-864E-BA42-B34D14EFB0C9}" name="network_template_name" dataDxfId="15">
+      <calculatedColumnFormula>IF(ISBLANK(network_site_association[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association[[#This Row],[network_name]],network[name],network[template_name]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{ED8273C4-2985-F74F-91BC-6CCA6D55622B}" name="network_schema_name" dataDxfId="14">
+      <calculatedColumnFormula>IF(ISBLANK(network_site_association[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association[[#This Row],[network_name]],network[name],network[schema_name]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{9AF9C4E1-F2C0-B64F-B9D7-8CB6F11C6E61}" name="site"/>
+    <tableColumn id="5" xr3:uid="{D650502E-B576-294B-A0C7-57F561D60837}" name="enable_l3_border_gateway"/>
+    <tableColumn id="6" xr3:uid="{BDB9D2FA-4A27-244B-A130-AF732D521DA1}" name="vrf_name" dataDxfId="13">
+      <calculatedColumnFormula>IF(ISBLANK(network_site_association[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association[[#This Row],[network_name]],network[name],network[vrf_name]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{452408BB-EBE7-A348-B7F7-9F34AE6EA8D1}" name="dhcp_loopback_id"/>
+    <tableColumn id="8" xr3:uid="{9F07F4BA-05C2-8640-91DF-DF0029E8C32E}" name="status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{4FCE2187-9BC2-4C43-B941-A461DF10B415}" name="network_site_association16" displayName="network_site_association16" ref="A1:H2" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A1:H2" xr:uid="{4FCE2187-9BC2-4C43-B941-A461DF10B415}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{6976A01D-953A-584F-A537-416094AA6B3C}" name="network_name"/>
+    <tableColumn id="2" xr3:uid="{FA36DAAF-1F3A-FE44-9446-B4FD4821A7FD}" name="network_template_name" dataDxfId="9">
+      <calculatedColumnFormula>IF(ISBLANK(network_site_association16[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association16[[#This Row],[network_name]],network[name],network[template_name]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{E81720DF-3FB0-B94D-930D-56CA005B216E}" name="network_schema_name" dataDxfId="8">
+      <calculatedColumnFormula>IF(ISBLANK(network_site_association16[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association16[[#This Row],[network_name]],network[name],network[schema_name]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{EF35738A-A296-CA43-97A1-D6FCACB8D2A6}" name="site"/>
+    <tableColumn id="5" xr3:uid="{20D3ED04-CA98-AA40-B7F0-D685DE1072CA}" name="switch_1_serial_number"/>
+    <tableColumn id="6" xr3:uid="{3B08ED13-65B5-2A46-9E4F-1D31D41538C0}" name="switch_2_serial_number"/>
+    <tableColumn id="8" xr3:uid="{EC9D7221-3913-F843-854E-8A1877861963}" name="switch_serial_number" dataDxfId="7">
+      <calculatedColumnFormula>IF(ISBLANK(network_site_association16[[#This Row],[switch_1_serial_number]]),"",IF(ISBLANK(network_site_association16[[#This Row],[switch_2_serial_number]]),network_site_association16[[#This Row],[switch_1_serial_number]],network_site_association16[[#This Row],[switch_1_serial_number]]&amp;"~"&amp;network_site_association16[[#This Row],[switch_2_serial_number]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{4A4222F8-268E-6240-9C47-CBDC8E765CAE}" name="status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{6DA18C78-B542-9B40-ABB2-01CD41D5D451}" name="network_site_dhcp_association" displayName="network_site_dhcp_association" ref="A1:G2" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="A1:G2" xr:uid="{6DA18C78-B542-9B40-ABB2-01CD41D5D451}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{5CB6893E-DF39-3B4E-8E4E-2467B57A7FE3}" name="network_name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{D1170512-1F44-8045-B049-CC9CBBE451B6}" name="network_template_name" dataDxfId="3">
+      <calculatedColumnFormula>IF(ISBLANK(network_site_association16[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association16[[#This Row],[network_name]],network[name],network[template_name]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{3FB15CD7-11C8-6147-8E7E-C38DCB0414E7}" name="network_schema_name" dataDxfId="2">
+      <calculatedColumnFormula>IF(ISBLANK(network_site_association16[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association16[[#This Row],[network_name]],network[name],network[schema_name]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{BA067983-0C25-7A45-B542-B64F9933F7A8}" name="site" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{1AC69149-64EF-6441-8851-05C55394873F}" name="dhcp_vrf"/>
+    <tableColumn id="6" xr3:uid="{28B7873A-4A5B-AB43-A889-A94DEDDFEB56}" name="dhcp_address"/>
+    <tableColumn id="7" xr3:uid="{6D6EDB65-10DD-0F41-8DF3-3E44B04E7296}" name="status"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{0F31F9F9-ACEC-9F4A-871B-D7752096FBD2}" name="mso_controller" displayName="mso_controller" ref="A1:E2" totalsRowShown="0" headerRowDxfId="46" headerRowBorderDxfId="45" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{0F31F9F9-ACEC-9F4A-871B-D7752096FBD2}" name="mso_controller" displayName="mso_controller" ref="A1:E2" totalsRowShown="0" headerRowDxfId="76" headerRowBorderDxfId="75" tableBorderDxfId="74">
   <autoFilter ref="A1:E2" xr:uid="{0F31F9F9-ACEC-9F4A-871B-D7752096FBD2}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{2917679A-BB66-2A47-BE24-50885C205168}" name="mso_hostname"/>
     <tableColumn id="2" xr3:uid="{60BD482B-B833-9940-A13E-592B24A374B4}" name="oob_ipv4"/>
     <tableColumn id="4" xr3:uid="{95BC2F61-2035-3649-957F-E450709A99A7}" name="username"/>
-    <tableColumn id="5" xr3:uid="{AA6846F9-BBDD-934B-A6F3-406308805816}" name="password" dataDxfId="43" dataCellStyle="Hyperlink"/>
+    <tableColumn id="5" xr3:uid="{AA6846F9-BBDD-934B-A6F3-406308805816}" name="password" dataDxfId="73" dataCellStyle="Hyperlink"/>
     <tableColumn id="3" xr3:uid="{FFEDF7FE-3DFA-0241-84CD-8C1943DE67E9}" name="status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1066,17 +1675,17 @@
     <tableColumn id="1" xr3:uid="{C7F93620-81D8-FA44-9192-8A4F1EDBBE92}" name="name"/>
     <tableColumn id="2" xr3:uid="{FE561887-F583-3C48-8182-854B83621485}" name="controller_username"/>
     <tableColumn id="3" xr3:uid="{256E81E7-7522-F648-9614-4585A27343B0}" name="controller_password"/>
-    <tableColumn id="4" xr3:uid="{900B5D1F-E33E-934D-96A0-7CAF8977DFEC}" name="controller_url" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{40384729-2FFB-504D-8CF1-EBE5BA1E9950}" name="site_type" dataDxfId="41" dataCellStyle="Hyperlink"/>
+    <tableColumn id="4" xr3:uid="{900B5D1F-E33E-934D-96A0-7CAF8977DFEC}" name="controller_url" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{40384729-2FFB-504D-8CF1-EBE5BA1E9950}" name="site_type" dataDxfId="71" dataCellStyle="Hyperlink"/>
     <tableColumn id="5" xr3:uid="{3C18EFAD-C08E-0E47-8FF8-45F3A0CE338C}" name="site_id"/>
     <tableColumn id="9" xr3:uid="{ACD5ECC2-2B17-144B-AD19-2CA6114AB3A1}" name="dcnm_fabric_type"/>
-    <tableColumn id="10" xr3:uid="{329A11D7-9243-FE4D-98CC-BE8F30561602}" name="dcnm_fabric_technology" dataDxfId="40">
+    <tableColumn id="10" xr3:uid="{329A11D7-9243-FE4D-98CC-BE8F30561602}" name="dcnm_fabric_technology" dataDxfId="70">
       <calculatedColumnFormula>IF(site[[#This Row],[dcnm_fabric_type]] = "External","External","VxlanFabric")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FCA1E551-3D07-FE4F-BDD4-79256E00EC8B}" name="multisite_loopback_range" dataDxfId="39">
+    <tableColumn id="11" xr3:uid="{FCA1E551-3D07-FE4F-BDD4-79256E00EC8B}" name="multisite_loopback_range" dataDxfId="69">
       <calculatedColumnFormula array="1">infra_dcnm_config[multisite_loopback_range]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{349A0238-9A04-A043-A00A-ECDA7066D27F}" name="anycast_vtep" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{349A0238-9A04-A043-A00A-ECDA7066D27F}" name="anycast_vtep" dataDxfId="68"/>
     <tableColumn id="8" xr3:uid="{AB91C754-DB23-B446-B4BE-F1F2338A482F}" name="status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1098,13 +1707,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F04E4CF9-55B4-724E-AA02-484313ECC24F}" name="Table25" displayName="Table25" ref="A1:D2" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34" totalsRowBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{F04E4CF9-55B4-724E-AA02-484313ECC24F}" name="Table25" displayName="Table25" ref="A1:D2" totalsRowShown="0" headerRowDxfId="67" dataDxfId="65" headerRowBorderDxfId="66" tableBorderDxfId="64" totalsRowBorderDxfId="63">
   <autoFilter ref="A1:D2" xr:uid="{F04E4CF9-55B4-724E-AA02-484313ECC24F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{61A803ED-1EB4-334F-9635-E840E01FA4DA}" name="site" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{470C8D42-0BC0-7343-B82E-C012C306127E}" name="device" dataDxfId="31"/>
-    <tableColumn id="2" xr3:uid="{69D4F1FF-C9B8-2644-BB8F-233648547BF6}" name="loopback" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{E0F0C5E5-39B9-9F4A-885D-23F6A0F69632}" name="status" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{61A803ED-1EB4-334F-9635-E840E01FA4DA}" name="site" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{470C8D42-0BC0-7343-B82E-C012C306127E}" name="device" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{69D4F1FF-C9B8-2644-BB8F-233648547BF6}" name="loopback" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{E0F0C5E5-39B9-9F4A-885D-23F6A0F69632}" name="status" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1125,19 +1734,19 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D611534-24A1-BC41-9631-0EC0725EAB2D}" name="tenant" displayName="tenant" ref="A1:C2" totalsRowShown="0" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3D611534-24A1-BC41-9631-0EC0725EAB2D}" name="tenant" displayName="tenant" ref="A1:C2" totalsRowShown="0" dataDxfId="58">
   <autoFilter ref="A1:C2" xr:uid="{072D7BC2-C1A3-0946-9ED8-2639EEC21A69}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3B36F2E2-627A-9A44-AD0C-5C44993A33B4}" name="name" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{42A1C280-28EF-574A-80E7-BC894C26F7FE}" name="description" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{39BF1B5A-C03C-0844-860C-4A0906383ADF}" name="status" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{3B36F2E2-627A-9A44-AD0C-5C44993A33B4}" name="name" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{42A1C280-28EF-574A-80E7-BC894C26F7FE}" name="description" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{39BF1B5A-C03C-0844-860C-4A0906383ADF}" name="status" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{09C58E03-A9D8-7A47-B7F2-DF445FB6ECA4}" name="Table5" displayName="Table5" ref="A1:D2" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{09C58E03-A9D8-7A47-B7F2-DF445FB6ECA4}" name="Table5" displayName="Table5" ref="A1:D2" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53" tableBorderDxfId="52">
   <autoFilter ref="A1:D2" xr:uid="{09C58E03-A9D8-7A47-B7F2-DF445FB6ECA4}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{15986F6C-274A-E144-B053-266B37382B2C}" name="tenant_name"/>
@@ -1150,14 +1759,14 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2A3D5E31-A65F-D34B-AE16-F24730FB46E5}" name="schema" displayName="schema" ref="A1:E2" totalsRowShown="0" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{2A3D5E31-A65F-D34B-AE16-F24730FB46E5}" name="schema" displayName="schema" ref="A1:E2" totalsRowShown="0" dataDxfId="51">
   <autoFilter ref="A1:E2" xr:uid="{AF8B2A4C-3887-EC4E-8982-2496E9E9D23C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3CB9E940-D768-2745-A083-38179FF64E71}" name="name" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{B44B3BCD-1074-464F-AD77-05A561012010}" name="template" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{84863110-CF6D-A94A-B71D-97261C6BF70B}" name="tenant" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{D7CE44B8-A963-E749-9B76-9C03FF331176}" name="template_type" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{9C8CDE5B-1C44-754D-B32D-A68BCAFE35BA}" name="status" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{3CB9E940-D768-2745-A083-38179FF64E71}" name="name" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{B44B3BCD-1074-464F-AD77-05A561012010}" name="template" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{84863110-CF6D-A94A-B71D-97261C6BF70B}" name="tenant" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{D7CE44B8-A963-E749-9B76-9C03FF331176}" name="template_type" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{9C8CDE5B-1C44-754D-B32D-A68BCAFE35BA}" name="status" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1460,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FBBA60D-9163-A74D-9266-151C1DA01DC9}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScale="194" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1568,9 +2177,64 @@
         <v>74</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A8" xr:uid="{F49699E6-6500-9E41-BE75-70F2DE263D9C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A13" xr:uid="{F49699E6-6500-9E41-BE75-70F2DE263D9C}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1581,6 +2245,11 @@
     <hyperlink ref="C3" location="tenant!A1" display="tenant" xr:uid="{C488ED6E-FB05-DA46-85A6-802BB0B1073A}"/>
     <hyperlink ref="C4" location="tenant_site_association!A1" display="tenant_site_association" xr:uid="{2E8559D7-B718-7741-8597-E8F8C1715CA3}"/>
     <hyperlink ref="C8" location="network!A1" display="network" xr:uid="{D4AF28A7-2B0E-AC49-916A-7991B94E571A}"/>
+    <hyperlink ref="C9" location="vrf_site_association!A1" display="vrf_site_association" xr:uid="{2D82D973-CF8A-8D4D-9055-1C8E79640FD7}"/>
+    <hyperlink ref="C10" location="vrf_site_switch_association!A1" display="vrf_site_switch_association" xr:uid="{01B2575E-40BD-A74F-9CAE-8A8C723636B8}"/>
+    <hyperlink ref="C11" location="network_site_association!A1" display="network_site_association!A1" xr:uid="{12410D08-6956-274E-B7BE-82B15E34873B}"/>
+    <hyperlink ref="C12" location="network_site_switch_association!A1" display="network_site_switch_association" xr:uid="{2BDC102A-7776-F646-AB75-6FB98BC9B7ED}"/>
+    <hyperlink ref="C13" location="network_site_dhcp_association!A1" display="network_site_dhcp_association" xr:uid="{FFBA5C30-BEF5-9B4E-AE42-DAA15E0D9DAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1654,8 +2323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B8254E-415A-8243-9A42-CCAA816B868C}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="400" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="400" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1711,9 +2380,9 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="8">
-        <f>_xlfn.XLOOKUP(vrf[[#This Row],[template_name]],schema[template],schema[name])</f>
-        <v>0</v>
+      <c r="D2" s="8" t="str">
+        <f>IF(ISBLANK(vrf[[#This Row],[name]]),"",_xlfn.XLOOKUP(vrf[[#This Row],[template_name]],schema[template],schema[name]))</f>
+        <v/>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1764,11 +2433,161 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2164B99B-ED24-E14E-99F6-DE3F7AF177DC}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView zoomScale="377" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="str">
+        <f>IF(ISBLANK(vrf_site_association[[#This Row],[vrf_name]]),"",_xlfn.XLOOKUP(vrf_site_association[[#This Row],[vrf_name]],vrf[name],vrf[template_name]))</f>
+        <v/>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>IF(ISBLANK(vrf_site_association[[#This Row],[vrf_name]]),"",_xlfn.XLOOKUP(vrf_site_association[[#This Row],[vrf_name]],vrf[name],vrf[schema_name]))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D6B7B429-CB77-CA4A-8C39-57814FD3C8F9}">
+          <x14:formula1>
+            <xm:f>vrf!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5D51C4A3-7FAA-C74B-8E4C-99076298781B}">
+          <x14:formula1>
+            <xm:f>site!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715B0542-835D-B049-8433-D17B8F8E3E3D}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="400" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="5" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="str">
+        <f>IF(ISBLANK(vrf_site_switch_association[[#This Row],[vrf_name]]),"",_xlfn.XLOOKUP(vrf_site_switch_association[[#This Row],[vrf_name]],vrf[name],vrf[template_name]))</f>
+        <v/>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>IF(ISBLANK(vrf_site_switch_association[[#This Row],[vrf_name]]),"",_xlfn.XLOOKUP(vrf_site_switch_association[[#This Row],[vrf_name]],vrf[name],vrf[schema_name]))</f>
+        <v/>
+      </c>
+      <c r="G2" s="8" t="str">
+        <f>IF(ISBLANK(vrf_site_switch_association[[#This Row],[switch_1_serial_number]]),"",IF(ISBLANK(vrf_site_switch_association[[#This Row],[switch_2_serial_number]]),vrf_site_switch_association[[#This Row],[switch_1_serial_number]],vrf_site_switch_association[[#This Row],[switch_1_serial_number]]&amp;"~"&amp;vrf_site_switch_association[[#This Row],[switch_2_serial_number]]))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7B129C0D-8ED7-2D47-B62D-C9BB79E34FC8}">
+          <x14:formula1>
+            <xm:f>vrf!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4C8EFFBC-CA10-9D4B-97D3-E17363E1E2AD}">
+          <x14:formula1>
+            <xm:f>site!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81972C6-FB40-AD45-986F-BC6702973469}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScale="400" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="C1" zoomScale="367" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1847,17 +2666,17 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D2" s="8">
-        <f>_xlfn.XLOOKUP(Table10[[#This Row],[template_name]],schema[template],schema[name])</f>
+      <c r="D2" s="8" t="str">
+        <f>IF(ISBLANK(network[[#This Row],[vrf_name]]),"",_xlfn.XLOOKUP(network[[#This Row],[template_name]],schema[template],schema[name]))</f>
+        <v/>
+      </c>
+      <c r="H2" s="8">
+        <f>_xlfn.XLOOKUP(network[[#This Row],[vrf_name]],vrf[name],vrf[template_name])</f>
         <v>0</v>
       </c>
-      <c r="H2" s="8">
-        <f>_xlfn.XLOOKUP(Table10[[#This Row],[vrf_name]],vrf[name],vrf[template_name])</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="8">
-        <f>_xlfn.XLOOKUP(Table10[[#This Row],[vrf_name]],vrf[name],vrf[schema_name])</f>
-        <v>0</v>
+      <c r="I2" s="8" t="str">
+        <f>_xlfn.XLOOKUP(network[[#This Row],[vrf_name]],vrf[name],vrf[schema_name])</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -1901,6 +2720,252 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38CFB48-1C4F-804B-9E77-888282BC6DCD}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView zoomScale="383" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="str">
+        <f>IF(ISBLANK(network_site_association[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association[[#This Row],[network_name]],network[name],network[template_name]))</f>
+        <v/>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>IF(ISBLANK(network_site_association[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association[[#This Row],[network_name]],network[name],network[schema_name]))</f>
+        <v/>
+      </c>
+      <c r="F2" s="8" t="str">
+        <f>IF(ISBLANK(network_site_association[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association[[#This Row],[network_name]],network[name],network[vrf_name]))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{9D42EF43-E783-9244-B4AC-4BDF6EA1CDC3}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{43A4785C-0AB5-2E4B-AEB3-75D56C156F59}">
+          <x14:formula1>
+            <xm:f>network!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E369FE3-77BB-CE40-99CF-FC8046AE8F18}">
+          <x14:formula1>
+            <xm:f>site!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E66C3B9-1B70-6A40-A669-E724F9173959}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B2" s="8" t="str">
+        <f>IF(ISBLANK(network_site_association16[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association16[[#This Row],[network_name]],network[name],network[template_name]))</f>
+        <v/>
+      </c>
+      <c r="C2" s="8" t="str">
+        <f>IF(ISBLANK(network_site_association16[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association16[[#This Row],[network_name]],network[name],network[schema_name]))</f>
+        <v/>
+      </c>
+      <c r="G2" s="8" t="str">
+        <f>IF(ISBLANK(network_site_association16[[#This Row],[switch_1_serial_number]]),"",IF(ISBLANK(network_site_association16[[#This Row],[switch_2_serial_number]]),network_site_association16[[#This Row],[switch_1_serial_number]],network_site_association16[[#This Row],[switch_1_serial_number]]&amp;"~"&amp;network_site_association16[[#This Row],[switch_2_serial_number]]))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{634DCCE9-9585-4240-AC19-72788B5DC015}">
+          <x14:formula1>
+            <xm:f>site!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{97D33354-D8D7-B34F-8052-939B0793B59B}">
+          <x14:formula1>
+            <xm:f>network!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEB71F8-566C-9441-804A-C4150C34C987}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14" t="str">
+        <f>IF(ISBLANK(network_site_association16[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association16[[#This Row],[network_name]],network[name],network[template_name]))</f>
+        <v/>
+      </c>
+      <c r="C2" s="14" t="str">
+        <f>IF(ISBLANK(network_site_association16[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association16[[#This Row],[network_name]],network[name],network[schema_name]))</f>
+        <v/>
+      </c>
+      <c r="D2" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6DC1C78F-951A-2B4A-9D53-E0E39A22062A}">
+          <x14:formula1>
+            <xm:f>network!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17DFFCDF-EFB2-E446-89C0-53C2BEEDF571}">
+          <x14:formula1>
+            <xm:f>site!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD8639C-5D7A-4641-9C8D-4A8EC322A8E2}">
   <dimension ref="A1:E2"/>
@@ -1963,7 +3028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81F1106-6D16-444C-B563-E226D6BB3A31}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="400" workbookViewId="0">
+    <sheetView zoomScale="400" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/build_mso.xlsx
+++ b/build_mso.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calange/PycharmProjects/pycharm/ansible_ndo_dcnm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calange/PycharmProjects/ansible_ndo_dcnm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35991BD4-B1CF-4A45-A5DA-82D6850E28BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94630481-863C-AA4B-A2B9-C19BC0CCE382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20220" yWindow="-28800" windowWidth="34120" windowHeight="28800" tabRatio="878" firstSheet="8" activeTab="16" xr2:uid="{A9CD2B9B-B0A4-594B-AA2D-F7681573ED79}"/>
+    <workbookView xWindow="-15700" yWindow="-28300" windowWidth="34120" windowHeight="28300" tabRatio="878" activeTab="1" xr2:uid="{A9CD2B9B-B0A4-594B-AA2D-F7681573ED79}"/>
   </bookViews>
   <sheets>
     <sheet name="build_tasks" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,6 @@
     <sheet name="network_site_dhcp_association" sheetId="48" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="97">
   <si>
     <t>include</t>
   </si>
@@ -361,6 +360,9 @@
   </si>
   <si>
     <t>dhcp_address</t>
+  </si>
+  <si>
+    <t>C1sco12345</t>
   </si>
 </sst>
 </file>
@@ -545,10 +547,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -557,10 +558,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -572,6 +573,167 @@
     <cellStyle name="Normal 4" xfId="5" xr:uid="{43D0B8A7-C5A0-4D58-9BEC-3B91BF456DB2}"/>
   </cellStyles>
   <dxfs count="77">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -595,167 +757,6 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1635,17 +1636,17 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{6DA18C78-B542-9B40-ABB2-01CD41D5D451}" name="network_site_dhcp_association" displayName="network_site_dhcp_association" ref="A1:G2" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{6DA18C78-B542-9B40-ABB2-01CD41D5D451}" name="network_site_dhcp_association" displayName="network_site_dhcp_association" ref="A1:G2" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:G2" xr:uid="{6DA18C78-B542-9B40-ABB2-01CD41D5D451}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{5CB6893E-DF39-3B4E-8E4E-2467B57A7FE3}" name="network_name" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{D1170512-1F44-8045-B049-CC9CBBE451B6}" name="network_template_name" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{5CB6893E-DF39-3B4E-8E4E-2467B57A7FE3}" name="network_name" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{D1170512-1F44-8045-B049-CC9CBBE451B6}" name="network_template_name" dataDxfId="2">
       <calculatedColumnFormula>IF(ISBLANK(network_site_association16[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association16[[#This Row],[network_name]],network[name],network[template_name]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{3FB15CD7-11C8-6147-8E7E-C38DCB0414E7}" name="network_schema_name" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{3FB15CD7-11C8-6147-8E7E-C38DCB0414E7}" name="network_schema_name" dataDxfId="1">
       <calculatedColumnFormula>IF(ISBLANK(network_site_association16[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association16[[#This Row],[network_name]],network[name],network[schema_name]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BA067983-0C25-7A45-B542-B64F9933F7A8}" name="site" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{BA067983-0C25-7A45-B542-B64F9933F7A8}" name="site" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{1AC69149-64EF-6441-8851-05C55394873F}" name="dhcp_vrf"/>
     <tableColumn id="6" xr3:uid="{28B7873A-4A5B-AB43-A889-A94DEDDFEB56}" name="dhcp_address"/>
     <tableColumn id="7" xr3:uid="{6D6EDB65-10DD-0F41-8DF3-3E44B04E7296}" name="status"/>
@@ -2277,10 +2278,10 @@
       <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D1" t="s">
@@ -2288,7 +2289,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <f>_xlfn.XLOOKUP(Table7[[#This Row],[template_name]],schema[template],schema[name])</f>
         <v>0</v>
       </c>
@@ -2377,20 +2378,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="8" t="str">
+      <c r="D2" s="7" t="str">
         <f>IF(ISBLANK(vrf[[#This Row],[name]]),"",_xlfn.XLOOKUP(vrf[[#This Row],[template_name]],schema[template],schema[name]))</f>
         <v/>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -2448,28 +2439,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="7" t="str">
         <f>IF(ISBLANK(vrf_site_association[[#This Row],[vrf_name]]),"",_xlfn.XLOOKUP(vrf_site_association[[#This Row],[vrf_name]],vrf[name],vrf[template_name]))</f>
         <v/>
       </c>
-      <c r="C2" s="8" t="str">
+      <c r="C2" s="7" t="str">
         <f>IF(ISBLANK(vrf_site_association[[#This Row],[vrf_name]]),"",_xlfn.XLOOKUP(vrf_site_association[[#This Row],[vrf_name]],vrf[name],vrf[schema_name]))</f>
         <v/>
       </c>
@@ -2517,41 +2508,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="7" t="str">
         <f>IF(ISBLANK(vrf_site_switch_association[[#This Row],[vrf_name]]),"",_xlfn.XLOOKUP(vrf_site_switch_association[[#This Row],[vrf_name]],vrf[name],vrf[template_name]))</f>
         <v/>
       </c>
-      <c r="C2" s="8" t="str">
+      <c r="C2" s="7" t="str">
         <f>IF(ISBLANK(vrf_site_switch_association[[#This Row],[vrf_name]]),"",_xlfn.XLOOKUP(vrf_site_switch_association[[#This Row],[vrf_name]],vrf[name],vrf[schema_name]))</f>
         <v/>
       </c>
-      <c r="G2" s="8" t="str">
+      <c r="G2" s="7" t="str">
         <f>IF(ISBLANK(vrf_site_switch_association[[#This Row],[switch_1_serial_number]]),"",IF(ISBLANK(vrf_site_switch_association[[#This Row],[switch_2_serial_number]]),vrf_site_switch_association[[#This Row],[switch_1_serial_number]],vrf_site_switch_association[[#This Row],[switch_1_serial_number]]&amp;"~"&amp;vrf_site_switch_association[[#This Row],[switch_2_serial_number]]))</f>
         <v/>
       </c>
@@ -2666,15 +2657,15 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="D2" s="8" t="str">
+      <c r="D2" s="7" t="str">
         <f>IF(ISBLANK(network[[#This Row],[vrf_name]]),"",_xlfn.XLOOKUP(network[[#This Row],[template_name]],schema[template],schema[name]))</f>
         <v/>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <f>_xlfn.XLOOKUP(network[[#This Row],[vrf_name]],vrf[name],vrf[template_name])</f>
         <v>0</v>
       </c>
-      <c r="I2" s="8" t="str">
+      <c r="I2" s="7" t="str">
         <f>_xlfn.XLOOKUP(network[[#This Row],[vrf_name]],vrf[name],vrf[schema_name])</f>
         <v/>
       </c>
@@ -2738,41 +2729,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="7" t="str">
         <f>IF(ISBLANK(network_site_association[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association[[#This Row],[network_name]],network[name],network[template_name]))</f>
         <v/>
       </c>
-      <c r="C2" s="8" t="str">
+      <c r="C2" s="7" t="str">
         <f>IF(ISBLANK(network_site_association[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association[[#This Row],[network_name]],network[name],network[schema_name]))</f>
         <v/>
       </c>
-      <c r="F2" s="8" t="str">
+      <c r="F2" s="7" t="str">
         <f>IF(ISBLANK(network_site_association[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association[[#This Row],[network_name]],network[name],network[vrf_name]))</f>
         <v/>
       </c>
@@ -2824,41 +2815,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="7" t="str">
         <f>IF(ISBLANK(network_site_association16[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association16[[#This Row],[network_name]],network[name],network[template_name]))</f>
         <v/>
       </c>
-      <c r="C2" s="8" t="str">
+      <c r="C2" s="7" t="str">
         <f>IF(ISBLANK(network_site_association16[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association16[[#This Row],[network_name]],network[name],network[schema_name]))</f>
         <v/>
       </c>
-      <c r="G2" s="8" t="str">
+      <c r="G2" s="7" t="str">
         <f>IF(ISBLANK(network_site_association16[[#This Row],[switch_1_serial_number]]),"",IF(ISBLANK(network_site_association16[[#This Row],[switch_2_serial_number]]),network_site_association16[[#This Row],[switch_1_serial_number]],network_site_association16[[#This Row],[switch_1_serial_number]]&amp;"~"&amp;network_site_association16[[#This Row],[switch_2_serial_number]]))</f>
         <v/>
       </c>
@@ -2893,7 +2884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FEB71F8-566C-9441-804A-C4150C34C987}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
@@ -2906,39 +2897,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="str">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13" t="str">
         <f>IF(ISBLANK(network_site_association16[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association16[[#This Row],[network_name]],network[name],network[template_name]))</f>
         <v/>
       </c>
-      <c r="C2" s="14" t="str">
+      <c r="C2" s="13" t="str">
         <f>IF(ISBLANK(network_site_association16[[#This Row],[network_name]]),"",_xlfn.XLOOKUP(network_site_association16[[#This Row],[network_name]],network[name],network[schema_name]))</f>
         <v/>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2970,8 +2961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD8639C-5D7A-4641-9C8D-4A8EC322A8E2}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="268" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="268" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2983,19 +2974,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3009,7 +3000,9 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -3072,10 +3065,10 @@
       <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>44</v>
       </c>
       <c r="K1" t="s">
@@ -3083,17 +3076,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="H2" s="8" t="str">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="H2" s="7" t="str">
         <f>IF(site[[#This Row],[dcnm_fabric_type]] = "External","External","VxlanFabric")</f>
         <v>VxlanFabric</v>
       </c>
-      <c r="I2" s="11" cm="1">
+      <c r="I2" s="10" cm="1">
         <f t="array" ref="I2">infra_dcnm_config[multisite_loopback_range]</f>
         <v>0</v>
       </c>
-      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -3181,24 +3173,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3296,11 +3285,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3336,16 +3324,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3378,7 +3366,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D934BC9-901E-2E4A-A53E-5A76FE795642}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView zoomScale="395" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -3407,13 +3395,6 @@
       <c r="E1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="5">
